--- a/doc/防错料系统硬件配置清单.xlsx
+++ b/doc/防错料系统硬件配置清单.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="硬件清单" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="外设清单" sheetId="1" r:id="rId1"/>
+    <sheet name="接驳台中控报警模块配置清单 " sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,66 @@
 内存:8G
 硬盘:250G
 显示器:1080P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一套中控系统的硬件配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属铁皮机箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1路 5V继电器模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2路 5V继电器模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V  LED报警灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷片电容  0.1uf  50V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派3代B型 3b开发板/官方套件 PI3 RS英国版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电开关 安装支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5平方多股软线 100米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发过程中所需的硬件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派7寸LCD高清HDMI触摸电容屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI高清线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,6 +463,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,6 +474,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +785,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -739,16 +805,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -1015,12 +1081,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <f>E3*F3</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G13" si="0">E4*F4</f>
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>305</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18.36</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>18.36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f>E11*F11</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2">
+        <v>170</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f>E12*F12</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
